--- a/Help items.xlsx
+++ b/Help items.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>title</t>
   </si>
@@ -37,6 +37,132 @@
   </si>
   <si>
     <t>Place the board on a table and put the Chance and Community Chest cards facedown on their allotted spaces on the board. Each player chooses one token to represent himther while traveling around the board</t>
+  </si>
+  <si>
+    <t>BANKER</t>
+  </si>
+  <si>
+    <t>THE BANK</t>
+  </si>
+  <si>
+    <t>Starting with the Banker, each player in turn throws the dice. The player with the highest total starts the play: Place your token on the corner marked "GO," throw the dice and move your token in the direction of the arrow the number of spaces indicated by the dice. After you have completed your play, the turn passes to the left. The tokens remain on the spaces qccupied and proceed from that point on the player's next turn. Two or more tokens may rest on the same space at the same time.</t>
+  </si>
+  <si>
+    <t>THE PLAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whenever you land on an unowned property you
+may buy that property from the Bank at its printed price. You receive the
+Title Deed card showing ownership; place it faceup in front of you. </t>
+  </si>
+  <si>
+    <t>PAYING RENT</t>
+  </si>
+  <si>
+    <t>When you land on property owned by another player, the owner collects rent from you in accordance with the list printed on its Title Deed card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When you land on either of
+these spaces, take the top card from the deck indicated, follow the 
+instructions and return the card facedown to the bottom of the deck. </t>
+  </si>
+  <si>
+    <t>"GO"</t>
+  </si>
+  <si>
+    <t>"INCOME TAX"</t>
+  </si>
+  <si>
+    <t>"CHANCE" AND "COMMUNITY CHEST"</t>
+  </si>
+  <si>
+    <t>BUYING PROPERTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you land here you have two options: You may
+estimate your tax at $900 and pay the Bank, or you may pay 10% of
+your total worth to the Bank. Your total worth is all your cash on hand,
+printed prices of mortgaged and unmortgaged properties and cost
+price of all buildings you own. </t>
+  </si>
+  <si>
+    <t>"JAIL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You land in Jail when. ..(I) your token lands on the space
+marked "Go to Jail"; (2) you draw a card marked "Go to JailN; or
+(3) you throw doubles three times in succession. </t>
+  </si>
+  <si>
+    <t>"FREE PARKING</t>
+  </si>
+  <si>
+    <t>A player landing on this place does not receive any money, property or reward of any kind. This is just a "free" resting place.</t>
+  </si>
+  <si>
+    <t>HOUSES</t>
+  </si>
+  <si>
+    <t>When you own all the propert~es in a color-group you may buy houses from the Bank and erect them on those properties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOTELS </t>
+  </si>
+  <si>
+    <t>BUILDING SHORTAGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the Bank has no houses to sell, players
+wishing to build must wait for some player to return or sell histher
+houses to the Bank before building. If there are a limited number of
+houses and hotels available and two or more players wish to buy more
+than the Bank has, the houses or hotels must be sold at auction to the
+highest bidder. </t>
+  </si>
+  <si>
+    <t>SELLING PROPERTY</t>
+  </si>
+  <si>
+    <t>MORTGAGES</t>
+  </si>
+  <si>
+    <t>Unimproved properties can be mortgaged through the Bank at any time. Before an improved property can be mortgaged, all the buildings on all the properties of its color-group must be sold back to the Bank at half price. The mortgage value is printed on each Title Deed card. No rent can be collected on mortgaged properties or utilities, but rent can be collected on unmortgaged properties in the same group</t>
+  </si>
+  <si>
+    <t>BANKRUPTCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are declared bankrupt if you owe more than you
+can pay either to another player or to the Bank. If your ,
+debt is to another player, you must tum over to that
+player all that you have of value and retire from the
+game</t>
+  </si>
+  <si>
+    <t>Money can be loaned to a player only by the Bank and then only by mortgaging property. No player may borrow from or lend money to another player.</t>
+  </si>
+  <si>
+    <t>MISCEUANEOUS</t>
+  </si>
+  <si>
+    <t>A Banker who plays in the game must keep hislher personal funds separate from those of the Bank.</t>
+  </si>
+  <si>
+    <t>the Bank
+holds the Title Deed cards and houses and hotels prior to purchase
+and use by the players, pays salaries and bonuses and sells
+and auctions properties and hands out their proper Title Deed cards;
+it sells houses and hotels to the players and loans money when
+required on mortgages.</t>
+  </si>
+  <si>
+    <t>Each time a player's token lands on or passes over GO, whether by throwing the dice or drawing a card, the Banker pays himther a $200 salary.</t>
+  </si>
+  <si>
+    <t>Unimproved properties, railroads and utilities (but not buildings) may be sold to any player as a private transaction for any amount the owner can get; however, no property can be sold to - another player if buildings are standing on any properties of that colorgroup. Any buildings so located must be sold back to the Bank before the owner can sell any property of that color-group. Houses and hotels may be sold back to the Bank at any time for onehalf the price paid for them. All houses on one color-group must be sold one by one, evenly, in reverse of the manner in which they were erected. All hotels on one color-group may be sold at once, or they may be sold one house at a time (one hotel equals five houses), evenly, in reverse of the manner in which they were erected.</t>
+  </si>
+  <si>
+    <t>When a player has four houses on each property of a complete color-group, he/she may buy a hotel from the Bank and erect it on any property of the color-group. He/she returns the four houses from that property to the Bank and pays the price for the hotel as shown on the Ttle Deed card. Only one hotel may be erected on any one property</t>
   </si>
 </sst>
 </file>
@@ -73,8 +199,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,128 +555,230 @@
       <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
